--- a/12_KS_연도별_보고서작성_큐/Data/Input/KS_Vendor_Information_Template.xlsx
+++ b/12_KS_연도별_보고서작성_큐/Data/Input/KS_Vendor_Information_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\12_KS_연도별_보고서작성_큐\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93365CA-0371-430B-93B6-BAF8FDA1A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6701BAF-620F-4F37-B148-961C2176FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="-20700" windowWidth="17910" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS_Vendor_Information_Template" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
